--- a/data/trans_orig/IP16A04-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16A04-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3250B74-30A9-4A36-A77B-BEDF3A421C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9893A89B-322C-44AC-AF98-18ADC3024225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{95E451D5-E6B9-4FC4-AE1A-06573EEAC586}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{03C95BAF-B1D2-426B-8880-5C9EFA6FA9BE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -67,21 +67,75 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>98,31%</t>
   </si>
   <si>
     <t>91,52%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
     <t>98,39%</t>
   </si>
   <si>
@@ -94,15 +148,9 @@
     <t>95,0%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>1,69%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
     <t>8,48%</t>
   </si>
   <si>
@@ -118,31 +166,37 @@
     <t>5,0%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -184,60 +238,6 @@
     <t>8,53%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
     <t>98,48%</t>
   </si>
   <si>
@@ -289,6 +289,36 @@
     <t>Menores según si ha consumido laxantes en 2012 (Tasa respuesta: 25,73%)</t>
   </si>
   <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
     <t>98,77%</t>
   </si>
   <si>
@@ -319,22 +349,40 @@
     <t>2,64%</t>
   </si>
   <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
   </si>
   <si>
     <t>98,72%</t>
@@ -367,54 +415,6 @@
     <t>3,65%</t>
   </si>
   <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
     <t>99,02%</t>
   </si>
   <si>
@@ -460,6 +460,66 @@
     <t>Menores según si ha consumido laxantes en 2015 (Tasa respuesta: 21,64%)</t>
   </si>
   <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
     <t>91,92%</t>
   </si>
   <si>
@@ -490,46 +550,16 @@
     <t>4,9%</t>
   </si>
   <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
   </si>
   <si>
     <t>96,39%</t>
@@ -560,36 +590,6 @@
   </si>
   <si>
     <t>4,8%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
   </si>
   <si>
     <t>99,08%</t>
@@ -1029,7 +1029,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D268105-9275-41FC-9E7E-73687DCDE821}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D0906C8-09F6-4C7F-B8BC-C7797C24FF43}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1147,10 +1147,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>40608</v>
+        <v>4787</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1162,31 +1162,31 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I4" s="7">
-        <v>40978</v>
+        <v>9694</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>18</v>
+      </c>
+      <c r="N4" s="7">
+        <v>14481</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="7">
-        <v>127</v>
-      </c>
-      <c r="N4" s="7">
-        <v>81585</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -1195,52 +1195,52 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7">
-        <v>698</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>669</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="7">
-        <v>2</v>
-      </c>
-      <c r="N5" s="7">
-        <v>1367</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1249,54 +1249,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="D6" s="7">
-        <v>41306</v>
+        <v>4787</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I6" s="7">
-        <v>41647</v>
+        <v>9694</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>129</v>
+        <v>18</v>
       </c>
       <c r="N6" s="7">
-        <v>82952</v>
+        <v>14481</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1308,13 +1308,13 @@
         <v>23887</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
         <v>35</v>
@@ -1323,13 +1323,13 @@
         <v>23124</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
         <v>72</v>
@@ -1338,34 +1338,34 @@
         <v>47011</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1374,13 +1374,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -1389,13 +1389,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1410,13 +1410,13 @@
         <v>23887</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>35</v>
@@ -1425,13 +1425,13 @@
         <v>23124</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>72</v>
@@ -1440,117 +1440,117 @@
         <v>47011</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D10" s="7">
-        <v>38004</v>
+        <v>40608</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
+        <v>66</v>
+      </c>
+      <c r="I10" s="7">
+        <v>40978</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="7">
-        <v>24910</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>39</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="N10" s="7">
-        <v>62914</v>
+        <v>81585</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>813</v>
+        <v>698</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>767</v>
+        <v>669</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
       </c>
       <c r="N11" s="7">
-        <v>1580</v>
+        <v>1367</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1559,153 +1559,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D12" s="7">
-        <v>38817</v>
+        <v>41306</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="I12" s="7">
-        <v>25677</v>
+        <v>41647</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="N12" s="7">
-        <v>64494</v>
+        <v>82952</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="D13" s="7">
-        <v>4787</v>
+        <v>34450</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I13" s="7">
-        <v>9694</v>
+        <v>25164</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="N13" s="7">
-        <v>14481</v>
+        <v>59613</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1</v>
+      </c>
+      <c r="D14" s="7">
+        <v>673</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="7">
-        <v>0</v>
-      </c>
-      <c r="D14" s="7">
-        <v>0</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="L14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M14" s="7">
+        <v>1</v>
+      </c>
+      <c r="N14" s="7">
+        <v>673</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1714,150 +1714,150 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="D15" s="7">
-        <v>4787</v>
+        <v>35123</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I15" s="7">
-        <v>9694</v>
+        <v>25164</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="N15" s="7">
-        <v>14481</v>
+        <v>60286</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D16" s="7">
-        <v>34450</v>
+        <v>38004</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="7">
+        <v>33</v>
+      </c>
+      <c r="I16" s="7">
+        <v>24910</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="7">
-        <v>42</v>
-      </c>
-      <c r="I16" s="7">
-        <v>25164</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M16" s="7">
+        <v>88</v>
+      </c>
+      <c r="N16" s="7">
+        <v>62914</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M16" s="7">
-        <v>95</v>
-      </c>
-      <c r="N16" s="7">
-        <v>59613</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="P16" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
         <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>673</v>
+        <v>813</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>1</v>
+      </c>
+      <c r="I17" s="7">
+        <v>767</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="K17" s="7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>63</v>
       </c>
       <c r="M17" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N17" s="7">
-        <v>673</v>
+        <v>1580</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>64</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>65</v>
@@ -1869,49 +1869,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D18" s="7">
-        <v>35123</v>
+        <v>38817</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I18" s="7">
-        <v>25164</v>
+        <v>25677</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="N18" s="7">
-        <v>60286</v>
+        <v>64494</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1949,7 +1949,7 @@
         <v>70</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M19" s="7">
         <v>400</v>
@@ -1970,7 +1970,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>3</v>
@@ -1997,7 +1997,7 @@
         <v>77</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>78</v>
@@ -2030,13 +2030,13 @@
         <v>143919</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>190</v>
@@ -2045,13 +2045,13 @@
         <v>125305</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>405</v>
@@ -2060,13 +2060,13 @@
         <v>269224</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2087,7 +2087,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3714F5DE-BAF3-4818-85D5-0036C2C6C920}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE48521-A333-4ED1-980E-BB03E2EC6B0C}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2205,46 +2205,46 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>50338</v>
+        <v>2652</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
+        <v>9</v>
+      </c>
+      <c r="I4" s="7">
+        <v>7830</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="7">
-        <v>78</v>
-      </c>
-      <c r="I4" s="7">
-        <v>51737</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>85</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>149</v>
+        <v>12</v>
       </c>
       <c r="N4" s="7">
-        <v>102075</v>
+        <v>10482</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -2253,52 +2253,52 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7">
-        <v>625</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="M5" s="7">
-        <v>1</v>
-      </c>
-      <c r="N5" s="7">
-        <v>625</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2307,54 +2307,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="D6" s="7">
-        <v>50963</v>
+        <v>2652</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="I6" s="7">
-        <v>51737</v>
+        <v>7830</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="N6" s="7">
-        <v>102700</v>
+        <v>10482</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2366,13 +2366,13 @@
         <v>36695</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
         <v>45</v>
@@ -2381,13 +2381,13 @@
         <v>33211</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
         <v>96</v>
@@ -2396,34 +2396,34 @@
         <v>69906</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2432,13 +2432,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2447,13 +2447,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2468,13 +2468,13 @@
         <v>36695</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>45</v>
@@ -2483,13 +2483,13 @@
         <v>33211</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>96</v>
@@ -2498,87 +2498,87 @@
         <v>69906</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D10" s="7">
-        <v>49300</v>
+        <v>50338</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="I10" s="7">
-        <v>50784</v>
+        <v>51737</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="N10" s="7">
-        <v>100084</v>
+        <v>102075</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2587,28 +2587,28 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2617,153 +2617,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D12" s="7">
-        <v>49941</v>
+        <v>50963</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="I12" s="7">
-        <v>50784</v>
+        <v>51737</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="N12" s="7">
-        <v>100725</v>
+        <v>102700</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="D13" s="7">
-        <v>2652</v>
+        <v>50621</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="I13" s="7">
-        <v>7830</v>
+        <v>42802</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="N13" s="7">
-        <v>10482</v>
+        <v>93423</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>607</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1</v>
+      </c>
+      <c r="I14" s="7">
+        <v>627</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="K14" s="7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>112</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>1234</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2772,150 +2772,150 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="D15" s="7">
-        <v>2652</v>
+        <v>51228</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="I15" s="7">
-        <v>7830</v>
+        <v>43429</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="N15" s="7">
-        <v>10482</v>
+        <v>94657</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D16" s="7">
-        <v>50621</v>
+        <v>49300</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H16" s="7">
         <v>68</v>
       </c>
       <c r="I16" s="7">
-        <v>42802</v>
+        <v>50784</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="N16" s="7">
-        <v>93423</v>
+        <v>100084</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
         <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>607</v>
+        <v>641</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>627</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>121</v>
+        <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>122</v>
       </c>
       <c r="M17" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N17" s="7">
-        <v>1234</v>
+        <v>641</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>123</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>124</v>
@@ -2927,49 +2927,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D18" s="7">
-        <v>51228</v>
+        <v>49941</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I18" s="7">
-        <v>43429</v>
+        <v>50784</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="N18" s="7">
-        <v>94657</v>
+        <v>100725</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3007,7 +3007,7 @@
         <v>129</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M19" s="7">
         <v>536</v>
@@ -3019,7 +3019,7 @@
         <v>130</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>131</v>
@@ -3028,7 +3028,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>3</v>
@@ -3055,7 +3055,7 @@
         <v>135</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>136</v>
@@ -3073,7 +3073,7 @@
         <v>138</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3088,13 +3088,13 @@
         <v>191478</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>269</v>
@@ -3103,13 +3103,13 @@
         <v>186992</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>540</v>
@@ -3118,13 +3118,13 @@
         <v>378470</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -3145,7 +3145,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF2D62B9-9662-4970-9A7A-47412DEA4787}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2BDCB7C-F570-4456-B523-1B99061E076B}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3263,13 +3263,13 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>49044</v>
+        <v>4512</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>140</v>
@@ -3278,13 +3278,13 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>84</v>
+        <v>8</v>
       </c>
       <c r="I4" s="7">
-        <v>52112</v>
+        <v>7682</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>141</v>
@@ -3293,70 +3293,70 @@
         <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>157</v>
+        <v>13</v>
       </c>
       <c r="N4" s="7">
-        <v>101155</v>
+        <v>12194</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>143</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>144</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7">
-        <v>717</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="G5" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="H5" s="7">
-        <v>2</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1306</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="M5" s="7">
-        <v>3</v>
-      </c>
-      <c r="N5" s="7">
-        <v>2024</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3365,54 +3365,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="D6" s="7">
-        <v>49761</v>
+        <v>4512</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="I6" s="7">
-        <v>53418</v>
+        <v>7682</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="N6" s="7">
-        <v>103179</v>
+        <v>12194</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3424,13 +3424,13 @@
         <v>23555</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H7" s="7">
         <v>32</v>
@@ -3439,13 +3439,13 @@
         <v>22432</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="M7" s="7">
         <v>64</v>
@@ -3454,19 +3454,19 @@
         <v>45987</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
@@ -3475,13 +3475,13 @@
         <v>652</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -3490,13 +3490,13 @@
         <v>1950</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -3505,13 +3505,13 @@
         <v>2602</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3526,13 +3526,13 @@
         <v>24207</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>35</v>
@@ -3541,13 +3541,13 @@
         <v>24382</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>68</v>
@@ -3556,117 +3556,117 @@
         <v>48589</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="D10" s="7">
-        <v>37270</v>
+        <v>49044</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="7">
+        <v>84</v>
+      </c>
+      <c r="I10" s="7">
+        <v>52112</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" s="7">
+        <v>157</v>
+      </c>
+      <c r="N10" s="7">
+        <v>101155</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="7">
-        <v>58</v>
-      </c>
-      <c r="I10" s="7">
-        <v>42334</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M10" s="7">
-        <v>110</v>
-      </c>
-      <c r="N10" s="7">
-        <v>79604</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>717</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H11" s="7">
+        <v>2</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1306</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="M11" s="7">
+        <v>3</v>
+      </c>
+      <c r="N11" s="7">
+        <v>2024</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>772</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="M11" s="7">
-        <v>1</v>
-      </c>
-      <c r="N11" s="7">
-        <v>772</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3675,123 +3675,123 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="D12" s="7">
-        <v>37270</v>
+        <v>49761</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="I12" s="7">
-        <v>43106</v>
+        <v>53418</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="N12" s="7">
-        <v>80376</v>
+        <v>103179</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="D13" s="7">
-        <v>4512</v>
+        <v>32374</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>174</v>
+        <v>87</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="I13" s="7">
-        <v>7682</v>
+        <v>33948</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="N13" s="7">
-        <v>12194</v>
+        <v>66323</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="7">
-        <v>0</v>
-      </c>
-      <c r="D14" s="7">
-        <v>0</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>177</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3800,13 +3800,13 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3815,13 +3815,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3830,150 +3830,150 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="D15" s="7">
-        <v>4512</v>
+        <v>32374</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="I15" s="7">
-        <v>7682</v>
+        <v>33948</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="N15" s="7">
-        <v>12194</v>
+        <v>66323</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D16" s="7">
-        <v>32374</v>
+        <v>37270</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>93</v>
+        <v>174</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I16" s="7">
-        <v>33948</v>
+        <v>42334</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>13</v>
+        <v>175</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="M16" s="7">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N16" s="7">
-        <v>66323</v>
+        <v>79604</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>13</v>
+        <v>177</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="7">
-        <v>0</v>
-      </c>
-      <c r="D17" s="7">
-        <v>0</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>179</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>772</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1</v>
+      </c>
+      <c r="N17" s="7">
+        <v>772</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="M17" s="7">
-        <v>0</v>
-      </c>
-      <c r="N17" s="7">
-        <v>0</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="P17" s="7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>183</v>
@@ -3985,49 +3985,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="7">
-        <v>32374</v>
+        <v>37270</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I18" s="7">
-        <v>33948</v>
+        <v>43106</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="N18" s="7">
-        <v>66323</v>
+        <v>80376</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4050,7 +4050,7 @@
         <v>185</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H19" s="7">
         <v>239</v>
@@ -4086,7 +4086,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>2</v>
@@ -4098,7 +4098,7 @@
         <v>192</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>193</v>
@@ -4146,13 +4146,13 @@
         <v>148125</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>245</v>
@@ -4161,13 +4161,13 @@
         <v>162536</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>460</v>
@@ -4176,13 +4176,13 @@
         <v>310661</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP16A04-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16A04-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9893A89B-322C-44AC-AF98-18ADC3024225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F6CCEEE-392D-4F13-918E-992BB30D2554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{03C95BAF-B1D2-426B-8880-5C9EFA6FA9BE}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E68150FE-A20A-4A74-8E78-478FB31850DD}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="201">
   <si>
     <t>Menores según si ha consumido laxantes en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
@@ -70,6 +70,24 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -88,27 +106,18 @@
     <t>90,01%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
     <t>94,97%</t>
   </si>
   <si>
@@ -118,61 +127,67 @@
     <t>97,38%</t>
   </si>
   <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
     <t>98,31%</t>
   </si>
   <si>
-    <t>91,52%</t>
+    <t>91,6%</t>
   </si>
   <si>
     <t>98,39%</t>
   </si>
   <si>
-    <t>92,01%</t>
+    <t>90,33%</t>
   </si>
   <si>
     <t>98,35%</t>
   </si>
   <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
+    <t>94,28%</t>
   </si>
   <si>
     <t>mas de 50</t>
   </si>
   <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
     <t>98,08%</t>
   </si>
   <si>
-    <t>88,99%</t>
+    <t>90,38%</t>
   </si>
   <si>
     <t>95,56%</t>
@@ -181,67 +196,73 @@
     <t>98,88%</t>
   </si>
   <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
+    <t>95,34%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
     <t>97,91%</t>
   </si>
   <si>
-    <t>89,49%</t>
+    <t>89,58%</t>
   </si>
   <si>
     <t>97,01%</t>
   </si>
   <si>
-    <t>83,7%</t>
+    <t>84,84%</t>
   </si>
   <si>
     <t>97,55%</t>
   </si>
   <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
   </si>
   <si>
     <t>98,48%</t>
   </si>
   <si>
-    <t>95,41%</t>
+    <t>95,96%</t>
   </si>
   <si>
     <t>99,53%</t>
@@ -250,55 +271,40 @@
     <t>98,85%</t>
   </si>
   <si>
-    <t>95,85%</t>
+    <t>95,95%</t>
   </si>
   <si>
     <t>98,66%</t>
   </si>
   <si>
-    <t>97,31%</t>
-  </si>
-  <si>
     <t>99,49%</t>
   </si>
   <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
   <si>
     <t>Menores según si ha consumido laxantes en 2012 (Tasa respuesta: 25,73%)</t>
   </si>
   <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
     <t>55,59%</t>
   </si>
   <si>
     <t>81,26%</t>
   </si>
   <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
   </si>
   <si>
     <t>96,32%</t>
@@ -310,19 +316,25 @@
     <t>98,02%</t>
   </si>
   <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
   </si>
   <si>
     <t>98,77%</t>
   </si>
   <si>
-    <t>93,87%</t>
+    <t>93,82%</t>
   </si>
   <si>
     <t>97,58%</t>
@@ -331,64 +343,64 @@
     <t>99,39%</t>
   </si>
   <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
   </si>
   <si>
     <t>98,82%</t>
   </si>
   <si>
-    <t>93,81%</t>
+    <t>93,53%</t>
   </si>
   <si>
     <t>98,56%</t>
   </si>
   <si>
-    <t>91,44%</t>
+    <t>92,72%</t>
   </si>
   <si>
     <t>98,7%</t>
   </si>
   <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
   </si>
   <si>
     <t>98,72%</t>
   </si>
   <si>
-    <t>92,11%</t>
+    <t>93,35%</t>
   </si>
   <si>
     <t>97,23%</t>
@@ -397,31 +409,40 @@
     <t>99,36%</t>
   </si>
   <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
   </si>
   <si>
     <t>99,02%</t>
   </si>
   <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
   </si>
   <si>
     <t>99,66%</t>
@@ -433,33 +454,24 @@
     <t>99,34%</t>
   </si>
   <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
   </si>
   <si>
     <t>Menores según si ha consumido laxantes en 2015 (Tasa respuesta: 21,64%)</t>
   </si>
   <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
     <t>69,43%</t>
   </si>
   <si>
@@ -469,85 +481,88 @@
     <t>86,51%</t>
   </si>
   <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
   </si>
   <si>
     <t>97,3%</t>
   </si>
   <si>
-    <t>88,85%</t>
+    <t>86,84%</t>
   </si>
   <si>
     <t>92,0%</t>
   </si>
   <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
   </si>
   <si>
     <t>94,64%</t>
   </si>
   <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
   </si>
   <si>
     <t>98,04%</t>
   </si>
   <si>
-    <t>95,1%</t>
+    <t>94,82%</t>
   </si>
   <si>
     <t>99,48%</t>
   </si>
   <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
   </si>
   <si>
     <t>96,7%</t>
@@ -556,10 +571,19 @@
     <t>98,24%</t>
   </si>
   <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
   </si>
   <si>
     <t>96,39%</t>
@@ -568,76 +592,55 @@
     <t>98,21%</t>
   </si>
   <si>
-    <t>90,88%</t>
+    <t>90,64%</t>
   </si>
   <si>
     <t>99,04%</t>
   </si>
   <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
   </si>
   <si>
     <t>99,08%</t>
   </si>
   <si>
-    <t>96,76%</t>
+    <t>96,87%</t>
   </si>
   <si>
     <t>97,52%</t>
   </si>
   <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
+    <t>95,13%</t>
   </si>
   <si>
     <t>98,26%</t>
   </si>
   <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
   </si>
 </sst>
 </file>
@@ -648,7 +651,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -744,39 +747,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -828,7 +831,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -939,13 +942,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -954,6 +950,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1018,19 +1021,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D0906C8-09F6-4C7F-B8BC-C7797C24FF43}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBC2A77F-1640-4DA6-8DFE-1696AC6B6573}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1147,10 +1170,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>4787</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1162,34 +1185,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="7">
-        <v>9694</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M4" s="7">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>14481</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1198,10 +1221,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>4787</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1213,34 +1236,34 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>9694</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="7">
         <v>18</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>14481</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1255,13 +1278,13 @@
         <v>4787</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>12</v>
@@ -1270,13 +1293,13 @@
         <v>9694</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>18</v>
@@ -1285,13 +1308,13 @@
         <v>14481</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1302,49 +1325,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>23887</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H7" s="7">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>23124</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M7" s="7">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>47011</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1353,49 +1376,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>23887</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>23124</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>47011</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1410,13 +1433,13 @@
         <v>23887</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>35</v>
@@ -1425,13 +1448,13 @@
         <v>23124</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>72</v>
@@ -1440,13 +1463,13 @@
         <v>47011</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1457,49 +1480,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>40608</v>
+        <v>698</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>30</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H10" s="7">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>40978</v>
+        <v>669</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>32</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="M10" s="7">
-        <v>127</v>
+        <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>81585</v>
+        <v>1367</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>34</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1508,49 +1531,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="D11" s="7">
-        <v>698</v>
+        <v>40608</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="I11" s="7">
-        <v>669</v>
+        <v>40978</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>38</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
+        <v>127</v>
       </c>
       <c r="N11" s="7">
-        <v>1367</v>
+        <v>81585</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1565,13 +1588,13 @@
         <v>41306</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>67</v>
@@ -1580,13 +1603,13 @@
         <v>41647</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>129</v>
@@ -1595,13 +1618,13 @@
         <v>82952</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1612,49 +1635,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>34450</v>
+        <v>673</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>43</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H13" s="7">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>25164</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M13" s="7">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>59613</v>
+        <v>673</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>46</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1663,49 +1686,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="D14" s="7">
-        <v>673</v>
+        <v>34450</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>48</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>25164</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="N14" s="7">
-        <v>673</v>
+        <v>59613</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>51</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1720,13 +1743,13 @@
         <v>35123</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>42</v>
@@ -1735,13 +1758,13 @@
         <v>25164</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>96</v>
@@ -1750,13 +1773,13 @@
         <v>60286</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1767,49 +1790,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>38004</v>
+        <v>813</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H16" s="7">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>24910</v>
+        <v>767</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>56</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="M16" s="7">
-        <v>88</v>
+        <v>2</v>
       </c>
       <c r="N16" s="7">
-        <v>62914</v>
+        <v>1580</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>58</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1818,49 +1841,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="D17" s="7">
-        <v>813</v>
+        <v>38004</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>60</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="I17" s="7">
-        <v>767</v>
+        <v>24910</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>62</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="M17" s="7">
-        <v>2</v>
+        <v>88</v>
       </c>
       <c r="N17" s="7">
-        <v>1580</v>
+        <v>62914</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>64</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1875,13 +1898,13 @@
         <v>38817</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>34</v>
@@ -1890,13 +1913,13 @@
         <v>25677</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>90</v>
@@ -1905,13 +1928,13 @@
         <v>64494</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1922,10 +1945,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>212</v>
+        <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>141735</v>
+        <v>2184</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>66</v>
@@ -1937,25 +1960,25 @@
         <v>68</v>
       </c>
       <c r="H19" s="7">
-        <v>188</v>
+        <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>123869</v>
+        <v>1436</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>69</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="L19" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="M19" s="7">
-        <v>400</v>
+        <v>5</v>
       </c>
       <c r="N19" s="7">
-        <v>265604</v>
+        <v>3620</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>71</v>
@@ -1964,7 +1987,7 @@
         <v>72</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1973,49 +1996,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>3</v>
+        <v>212</v>
       </c>
       <c r="D20" s="7">
-        <v>2184</v>
+        <v>141735</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>188</v>
+      </c>
+      <c r="I20" s="7">
+        <v>123869</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="H20" s="7">
-        <v>2</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1436</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="L20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M20" s="7">
+        <v>400</v>
+      </c>
+      <c r="N20" s="7">
+        <v>265604</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="M20" s="7">
-        <v>5</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3620</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2030,13 +2053,13 @@
         <v>143919</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>190</v>
@@ -2045,13 +2068,13 @@
         <v>125305</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>405</v>
@@ -2060,13 +2083,18 @@
         <v>269224</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2087,8 +2115,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE48521-A333-4ED1-980E-BB03E2EC6B0C}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F7ED972-A955-4602-A817-8CB3DC18017B}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2104,7 +2132,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2205,49 +2233,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>2652</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="7">
-        <v>9</v>
-      </c>
-      <c r="I4" s="7">
-        <v>7830</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="7">
-        <v>10482</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2256,49 +2284,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>2652</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
+        <v>9</v>
+      </c>
+      <c r="I5" s="7">
+        <v>7830</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>10482</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2313,13 +2341,13 @@
         <v>2652</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>9</v>
@@ -2328,13 +2356,13 @@
         <v>7830</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>12</v>
@@ -2343,13 +2371,13 @@
         <v>10482</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2360,49 +2388,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>36695</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="7">
-        <v>45</v>
-      </c>
-      <c r="I7" s="7">
-        <v>33211</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M7" s="7">
-        <v>96</v>
-      </c>
-      <c r="N7" s="7">
-        <v>69906</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2411,49 +2439,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>36695</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="7">
+        <v>45</v>
+      </c>
+      <c r="I8" s="7">
+        <v>33211</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="L8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="7">
+        <v>96</v>
+      </c>
+      <c r="N8" s="7">
+        <v>69906</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2468,13 +2496,13 @@
         <v>36695</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>45</v>
@@ -2483,13 +2511,13 @@
         <v>33211</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>96</v>
@@ -2498,13 +2526,13 @@
         <v>69906</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2515,49 +2543,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>50338</v>
+        <v>625</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="7">
-        <v>78</v>
-      </c>
-      <c r="I10" s="7">
-        <v>51737</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>625</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M10" s="7">
-        <v>149</v>
-      </c>
-      <c r="N10" s="7">
-        <v>102075</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2566,49 +2594,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="D11" s="7">
-        <v>625</v>
+        <v>50338</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="G11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="7">
+        <v>78</v>
+      </c>
+      <c r="I11" s="7">
+        <v>51737</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="L11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="7">
+        <v>149</v>
+      </c>
+      <c r="N11" s="7">
+        <v>102075</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="M11" s="7">
-        <v>1</v>
-      </c>
-      <c r="N11" s="7">
-        <v>625</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2623,13 +2651,13 @@
         <v>50963</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>78</v>
@@ -2638,13 +2666,13 @@
         <v>51737</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>150</v>
@@ -2653,13 +2681,13 @@
         <v>102700</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2670,49 +2698,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>50621</v>
+        <v>607</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>1</v>
+      </c>
+      <c r="I13" s="7">
+        <v>627</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="7">
-        <v>68</v>
-      </c>
-      <c r="I13" s="7">
-        <v>42802</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>2</v>
+      </c>
+      <c r="N13" s="7">
+        <v>1234</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M13" s="7">
-        <v>145</v>
-      </c>
-      <c r="N13" s="7">
-        <v>93423</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2721,49 +2749,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="D14" s="7">
-        <v>607</v>
+        <v>50621</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="G14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="7">
+        <v>68</v>
+      </c>
+      <c r="I14" s="7">
+        <v>42802</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>627</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="L14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="7">
+        <v>145</v>
+      </c>
+      <c r="N14" s="7">
+        <v>93423</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="M14" s="7">
-        <v>2</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1234</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>114</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2778,13 +2806,13 @@
         <v>51228</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>69</v>
@@ -2793,13 +2821,13 @@
         <v>43429</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>147</v>
@@ -2808,13 +2836,13 @@
         <v>94657</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2825,49 +2853,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>49300</v>
+        <v>641</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="7">
-        <v>68</v>
-      </c>
-      <c r="I16" s="7">
-        <v>50784</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>1</v>
+      </c>
+      <c r="N16" s="7">
+        <v>641</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M16" s="7">
-        <v>134</v>
-      </c>
-      <c r="N16" s="7">
-        <v>100084</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2876,49 +2904,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="D17" s="7">
-        <v>641</v>
+        <v>49300</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="G17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="7">
+        <v>68</v>
+      </c>
+      <c r="I17" s="7">
+        <v>50784</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="L17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" s="7">
+        <v>134</v>
+      </c>
+      <c r="N17" s="7">
+        <v>100084</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="M17" s="7">
-        <v>1</v>
-      </c>
-      <c r="N17" s="7">
-        <v>641</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>124</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2933,13 +2961,13 @@
         <v>49941</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>68</v>
@@ -2948,13 +2976,13 @@
         <v>50784</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>135</v>
@@ -2963,13 +2991,13 @@
         <v>100725</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2980,46 +3008,46 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>268</v>
+        <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>189605</v>
+        <v>1873</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>1</v>
+      </c>
+      <c r="I19" s="7">
+        <v>627</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="H19" s="7">
-        <v>268</v>
-      </c>
-      <c r="I19" s="7">
-        <v>186365</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>4</v>
+      </c>
+      <c r="N19" s="7">
+        <v>2500</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="L19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M19" s="7">
-        <v>536</v>
-      </c>
-      <c r="N19" s="7">
-        <v>375970</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>131</v>
@@ -3031,10 +3059,10 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>3</v>
+        <v>268</v>
       </c>
       <c r="D20" s="7">
-        <v>1873</v>
+        <v>189605</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>132</v>
@@ -3046,25 +3074,25 @@
         <v>134</v>
       </c>
       <c r="H20" s="7">
-        <v>1</v>
+        <v>268</v>
       </c>
       <c r="I20" s="7">
-        <v>627</v>
+        <v>186365</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>135</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>136</v>
+        <v>17</v>
       </c>
       <c r="M20" s="7">
-        <v>4</v>
+        <v>536</v>
       </c>
       <c r="N20" s="7">
-        <v>2500</v>
+        <v>375970</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>137</v>
@@ -3073,7 +3101,7 @@
         <v>138</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>40</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3088,13 +3116,13 @@
         <v>191478</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>269</v>
@@ -3103,13 +3131,13 @@
         <v>186992</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>540</v>
@@ -3118,13 +3146,18 @@
         <v>378470</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -3145,8 +3178,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2BDCB7C-F570-4456-B523-1B99061E076B}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ACB4094-1E87-4394-A997-ADECD2FFDB3E}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3162,7 +3195,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3263,49 +3296,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>4512</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="H4" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>7682</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>141</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>142</v>
       </c>
       <c r="M4" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>12194</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>142</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3314,49 +3347,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>4512</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>144</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>143</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>7682</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>144</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>12194</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>146</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>145</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3371,13 +3404,13 @@
         <v>4512</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>8</v>
@@ -3386,13 +3419,13 @@
         <v>7682</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>13</v>
@@ -3401,13 +3434,13 @@
         <v>12194</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3418,49 +3451,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>23555</v>
+        <v>652</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>148</v>
       </c>
       <c r="H7" s="7">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>22432</v>
+        <v>1950</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M7" s="7">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="N7" s="7">
-        <v>45987</v>
+        <v>2602</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3469,49 +3502,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="D8" s="7">
-        <v>652</v>
+        <v>23555</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>17</v>
+        <v>156</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>17</v>
       </c>
       <c r="H8" s="7">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="I8" s="7">
-        <v>1950</v>
+        <v>22432</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M8" s="7">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="N8" s="7">
-        <v>2602</v>
+        <v>45987</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3526,13 +3559,13 @@
         <v>24207</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>35</v>
@@ -3541,13 +3574,13 @@
         <v>24382</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>68</v>
@@ -3556,13 +3589,13 @@
         <v>48589</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3573,49 +3606,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>49044</v>
+        <v>717</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>160</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>11</v>
+        <v>163</v>
       </c>
       <c r="H10" s="7">
-        <v>84</v>
+        <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>52112</v>
+        <v>1306</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>58</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>11</v>
+        <v>164</v>
       </c>
       <c r="M10" s="7">
-        <v>157</v>
+        <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>101155</v>
+        <v>2024</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3624,49 +3657,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="D11" s="7">
-        <v>717</v>
+        <v>49044</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>17</v>
+        <v>168</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>165</v>
+        <v>17</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="I11" s="7">
-        <v>1306</v>
+        <v>52112</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>64</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>17</v>
+        <v>169</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>166</v>
+        <v>17</v>
       </c>
       <c r="M11" s="7">
-        <v>3</v>
+        <v>157</v>
       </c>
       <c r="N11" s="7">
-        <v>2024</v>
+        <v>101155</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3681,13 +3714,13 @@
         <v>49761</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>86</v>
@@ -3696,13 +3729,13 @@
         <v>53418</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>160</v>
@@ -3711,13 +3744,13 @@
         <v>103179</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3728,49 +3761,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>32374</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="H13" s="7">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>33948</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>13</v>
+        <v>173</v>
       </c>
       <c r="M13" s="7">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>66323</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>171</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>13</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3779,49 +3812,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>32374</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>33948</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>18</v>
+        <v>175</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>172</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>66323</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>18</v>
+        <v>176</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>173</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3836,13 +3869,13 @@
         <v>32374</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>57</v>
@@ -3851,13 +3884,13 @@
         <v>33948</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>108</v>
@@ -3866,13 +3899,13 @@
         <v>66323</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3883,49 +3916,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>37270</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>13</v>
+        <v>177</v>
       </c>
       <c r="H16" s="7">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>42334</v>
+        <v>772</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>176</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>11</v>
+        <v>179</v>
       </c>
       <c r="M16" s="7">
-        <v>110</v>
+        <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>79604</v>
+        <v>772</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>178</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>11</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3934,49 +3967,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>37270</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>18</v>
+        <v>182</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>179</v>
+        <v>19</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="I17" s="7">
-        <v>772</v>
+        <v>42334</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>17</v>
+        <v>184</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>181</v>
+        <v>17</v>
       </c>
       <c r="M17" s="7">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="N17" s="7">
-        <v>772</v>
+        <v>79604</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>17</v>
+        <v>186</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>183</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3991,13 +4024,13 @@
         <v>37270</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>59</v>
@@ -4006,13 +4039,13 @@
         <v>43106</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>111</v>
@@ -4021,13 +4054,13 @@
         <v>80376</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4038,49 +4071,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>213</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>146755</v>
+        <v>1370</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>185</v>
+        <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>11</v>
+        <v>188</v>
       </c>
       <c r="H19" s="7">
-        <v>239</v>
+        <v>6</v>
       </c>
       <c r="I19" s="7">
-        <v>158508</v>
+        <v>4028</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>187</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M19" s="7">
-        <v>452</v>
+        <v>8</v>
       </c>
       <c r="N19" s="7">
-        <v>305263</v>
+        <v>5398</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4089,49 +4122,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>2</v>
+        <v>213</v>
       </c>
       <c r="D20" s="7">
-        <v>1370</v>
+        <v>146755</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>17</v>
+        <v>195</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>193</v>
+        <v>17</v>
       </c>
       <c r="H20" s="7">
-        <v>6</v>
+        <v>239</v>
       </c>
       <c r="I20" s="7">
-        <v>4028</v>
+        <v>158508</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>196</v>
-      </c>
       <c r="M20" s="7">
-        <v>8</v>
+        <v>452</v>
       </c>
       <c r="N20" s="7">
-        <v>5398</v>
+        <v>305263</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4146,13 +4179,13 @@
         <v>148125</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>245</v>
@@ -4161,13 +4194,13 @@
         <v>162536</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>460</v>
@@ -4176,13 +4209,18 @@
         <v>310661</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP16A04-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16A04-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F6CCEEE-392D-4F13-918E-992BB30D2554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{896E94A2-F110-460C-AEEC-8DA7729DDB66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E68150FE-A20A-4A74-8E78-478FB31850DD}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6886B41D-4925-41AD-B531-FE3D18E6905C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="203">
   <si>
     <t>Menores según si ha consumido laxantes en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -106,7 +106,7 @@
     <t>90,01%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>5,03%</t>
@@ -127,76 +127,76 @@
     <t>97,38%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>1,69%</t>
   </si>
   <si>
-    <t>8,4%</t>
+    <t>8,39%</t>
   </si>
   <si>
     <t>1,61%</t>
   </si>
   <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
     <t>9,67%</t>
   </si>
   <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
   </si>
   <si>
     <t>90,33%</t>
   </si>
   <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
     <t>95,56%</t>
   </si>
   <si>
     <t>98,88%</t>
   </si>
   <si>
-    <t>95,34%</t>
+    <t>94,36%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -205,37 +205,37 @@
     <t>2,09%</t>
   </si>
   <si>
-    <t>10,42%</t>
+    <t>10,49%</t>
   </si>
   <si>
     <t>2,99%</t>
   </si>
   <si>
-    <t>15,16%</t>
+    <t>13,07%</t>
   </si>
   <si>
     <t>2,45%</t>
   </si>
   <si>
-    <t>7,32%</t>
+    <t>7,91%</t>
   </si>
   <si>
     <t>97,91%</t>
   </si>
   <si>
-    <t>89,58%</t>
+    <t>89,51%</t>
   </si>
   <si>
     <t>97,01%</t>
   </si>
   <si>
-    <t>84,84%</t>
+    <t>86,93%</t>
   </si>
   <si>
     <t>97,55%</t>
   </si>
   <si>
-    <t>92,68%</t>
+    <t>92,09%</t>
   </si>
   <si>
     <t>1,52%</t>
@@ -244,25 +244,28 @@
     <t>0,47%</t>
   </si>
   <si>
-    <t>4,04%</t>
+    <t>3,96%</t>
   </si>
   <si>
     <t>1,15%</t>
   </si>
   <si>
-    <t>4,05%</t>
+    <t>4,08%</t>
   </si>
   <si>
     <t>1,34%</t>
   </si>
   <si>
-    <t>0,51%</t>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
   </si>
   <si>
     <t>98,48%</t>
   </si>
   <si>
-    <t>95,96%</t>
+    <t>96,04%</t>
   </si>
   <si>
     <t>99,53%</t>
@@ -271,13 +274,16 @@
     <t>98,85%</t>
   </si>
   <si>
-    <t>95,95%</t>
+    <t>95,92%</t>
   </si>
   <si>
     <t>98,66%</t>
   </si>
   <si>
-    <t>99,49%</t>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -319,7 +325,7 @@
     <t>1,23%</t>
   </si>
   <si>
-    <t>6,18%</t>
+    <t>6,51%</t>
   </si>
   <si>
     <t>2,42%</t>
@@ -328,13 +334,13 @@
     <t>0,61%</t>
   </si>
   <si>
-    <t>3,08%</t>
+    <t>3,29%</t>
   </si>
   <si>
     <t>98,77%</t>
   </si>
   <si>
-    <t>93,82%</t>
+    <t>93,49%</t>
   </si>
   <si>
     <t>97,58%</t>
@@ -343,49 +349,49 @@
     <t>99,39%</t>
   </si>
   <si>
-    <t>96,92%</t>
+    <t>96,71%</t>
   </si>
   <si>
     <t>1,18%</t>
   </si>
   <si>
-    <t>6,47%</t>
+    <t>6,26%</t>
   </si>
   <si>
     <t>1,44%</t>
   </si>
   <si>
-    <t>7,28%</t>
+    <t>7,95%</t>
   </si>
   <si>
     <t>1,3%</t>
   </si>
   <si>
-    <t>3,94%</t>
+    <t>4,58%</t>
   </si>
   <si>
     <t>98,82%</t>
   </si>
   <si>
-    <t>93,53%</t>
+    <t>93,74%</t>
   </si>
   <si>
     <t>98,56%</t>
   </si>
   <si>
-    <t>92,72%</t>
+    <t>92,05%</t>
   </si>
   <si>
     <t>98,7%</t>
   </si>
   <si>
-    <t>96,06%</t>
+    <t>95,42%</t>
   </si>
   <si>
     <t>1,28%</t>
   </si>
   <si>
-    <t>6,65%</t>
+    <t>6,49%</t>
   </si>
   <si>
     <t>2,77%</t>
@@ -394,13 +400,13 @@
     <t>0,64%</t>
   </si>
   <si>
-    <t>3,23%</t>
+    <t>3,11%</t>
   </si>
   <si>
     <t>98,72%</t>
   </si>
   <si>
-    <t>93,35%</t>
+    <t>93,51%</t>
   </si>
   <si>
     <t>97,23%</t>
@@ -409,22 +415,22 @@
     <t>99,36%</t>
   </si>
   <si>
-    <t>96,77%</t>
+    <t>96,89%</t>
   </si>
   <si>
     <t>0,98%</t>
   </si>
   <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
   </si>
   <si>
     <t>0,34%</t>
   </si>
   <si>
-    <t>1,7%</t>
+    <t>1,67%</t>
   </si>
   <si>
     <t>0,66%</t>
@@ -433,34 +439,34 @@
     <t>0,17%</t>
   </si>
   <si>
-    <t>1,67%</t>
+    <t>1,64%</t>
   </si>
   <si>
     <t>99,02%</t>
   </si>
   <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
   </si>
   <si>
     <t>99,66%</t>
   </si>
   <si>
-    <t>98,3%</t>
+    <t>98,33%</t>
   </si>
   <si>
     <t>99,34%</t>
   </si>
   <si>
-    <t>98,33%</t>
+    <t>98,36%</t>
   </si>
   <si>
     <t>99,83%</t>
   </si>
   <si>
-    <t>Menores según si ha consumido laxantes en 2015 (Tasa respuesta: 21,64%)</t>
+    <t>Menores según si ha consumido laxantes en 2016 (Tasa respuesta: 21,64%)</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -484,55 +490,55 @@
     <t>2,7%</t>
   </si>
   <si>
-    <t>13,16%</t>
+    <t>13,83%</t>
   </si>
   <si>
     <t>8,0%</t>
   </si>
   <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
   </si>
   <si>
     <t>5,36%</t>
   </si>
   <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
   </si>
   <si>
     <t>97,3%</t>
   </si>
   <si>
-    <t>86,84%</t>
+    <t>86,17%</t>
   </si>
   <si>
     <t>92,0%</t>
   </si>
   <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
   </si>
   <si>
     <t>94,64%</t>
   </si>
   <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
   </si>
   <si>
     <t>1,96%</t>
@@ -541,19 +547,19 @@
     <t>0,52%</t>
   </si>
   <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
   </si>
   <si>
     <t>98,04%</t>
   </si>
   <si>
-    <t>94,82%</t>
+    <t>94,87%</t>
   </si>
   <si>
     <t>99,48%</t>
@@ -577,13 +583,13 @@
     <t>1,79%</t>
   </si>
   <si>
-    <t>9,36%</t>
+    <t>9,15%</t>
   </si>
   <si>
     <t>0,96%</t>
   </si>
   <si>
-    <t>4,82%</t>
+    <t>5,58%</t>
   </si>
   <si>
     <t>96,39%</t>
@@ -592,55 +598,55 @@
     <t>98,21%</t>
   </si>
   <si>
-    <t>90,64%</t>
+    <t>90,85%</t>
   </si>
   <si>
     <t>99,04%</t>
   </si>
   <si>
-    <t>95,18%</t>
+    <t>94,42%</t>
   </si>
   <si>
     <t>0,92%</t>
   </si>
   <si>
-    <t>3,13%</t>
+    <t>3,43%</t>
   </si>
   <si>
     <t>2,48%</t>
   </si>
   <si>
-    <t>4,87%</t>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
   </si>
   <si>
     <t>1,74%</t>
   </si>
   <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
+    <t>0,73%</t>
   </si>
   <si>
     <t>99,08%</t>
   </si>
   <si>
-    <t>96,87%</t>
+    <t>96,57%</t>
   </si>
   <si>
     <t>97,52%</t>
   </si>
   <si>
-    <t>95,13%</t>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
   </si>
   <si>
     <t>98,26%</t>
   </si>
   <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
+    <t>99,27%</t>
   </si>
 </sst>
 </file>
@@ -1052,7 +1058,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBC2A77F-1640-4DA6-8DFE-1696AC6B6573}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60F09E62-AF30-4E24-91BF-4468A8C0D291}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1987,7 +1993,7 @@
         <v>72</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2002,13 +2008,13 @@
         <v>141735</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H20" s="7">
         <v>188</v>
@@ -2017,10 +2023,10 @@
         <v>123869</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>17</v>
@@ -2032,13 +2038,13 @@
         <v>265604</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2094,7 +2100,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2115,7 +2121,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F7ED972-A955-4602-A817-8CB3DC18017B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB7CDC3-835B-4857-B0C8-9F1C6722F212}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2132,7 +2138,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2245,7 +2251,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2260,7 +2266,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2293,7 +2299,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -2308,7 +2314,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2400,7 +2406,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2415,7 +2421,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -2430,7 +2436,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2448,7 +2454,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -2463,7 +2469,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -2478,7 +2484,7 @@
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -2549,13 +2555,13 @@
         <v>625</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2570,7 +2576,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -2579,13 +2585,13 @@
         <v>625</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2600,10 +2606,10 @@
         <v>50338</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -2618,7 +2624,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -2630,10 +2636,10 @@
         <v>102075</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>17</v>
@@ -2704,13 +2710,13 @@
         <v>607</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -2719,13 +2725,13 @@
         <v>627</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -2734,13 +2740,13 @@
         <v>1234</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2755,10 +2761,10 @@
         <v>50621</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>17</v>
@@ -2770,10 +2776,10 @@
         <v>42802</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>17</v>
@@ -2785,10 +2791,10 @@
         <v>93423</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>17</v>
@@ -2859,13 +2865,13 @@
         <v>641</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2880,7 +2886,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -2889,13 +2895,13 @@
         <v>641</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2910,10 +2916,10 @@
         <v>49300</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>17</v>
@@ -2928,7 +2934,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -2940,10 +2946,10 @@
         <v>100084</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>17</v>
@@ -3014,13 +3020,13 @@
         <v>1873</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -3029,13 +3035,13 @@
         <v>627</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -3044,13 +3050,13 @@
         <v>2500</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3065,13 +3071,13 @@
         <v>189605</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>268</v>
@@ -3080,10 +3086,10 @@
         <v>186365</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>17</v>
@@ -3095,13 +3101,13 @@
         <v>375970</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3157,7 +3163,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3178,7 +3184,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ACB4094-1E87-4394-A997-ADECD2FFDB3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DB674D-A4F2-4229-80C2-9CA5EB8F9CEF}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3195,7 +3201,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3308,7 +3314,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3323,7 +3329,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3338,7 +3344,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3356,7 +3362,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -3371,7 +3377,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -3386,7 +3392,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -3457,13 +3463,13 @@
         <v>652</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -3472,13 +3478,13 @@
         <v>1950</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -3487,13 +3493,13 @@
         <v>2602</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3508,10 +3514,10 @@
         <v>23555</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -3523,13 +3529,13 @@
         <v>22432</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M8" s="7">
         <v>64</v>
@@ -3538,13 +3544,13 @@
         <v>45987</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3612,13 +3618,13 @@
         <v>717</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -3633,7 +3639,7 @@
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -3642,13 +3648,13 @@
         <v>2024</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3663,10 +3669,10 @@
         <v>49044</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -3681,7 +3687,7 @@
         <v>64</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>17</v>
@@ -3693,13 +3699,13 @@
         <v>101155</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3773,7 +3779,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3788,7 +3794,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3803,7 +3809,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3821,7 +3827,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -3836,7 +3842,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -3851,7 +3857,7 @@
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -3928,7 +3934,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -3937,13 +3943,13 @@
         <v>772</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -3952,13 +3958,13 @@
         <v>772</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3976,7 +3982,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -3988,10 +3994,10 @@
         <v>42334</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>17</v>
@@ -4003,10 +4009,10 @@
         <v>79604</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>17</v>
@@ -4077,13 +4083,13 @@
         <v>1370</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -4092,13 +4098,13 @@
         <v>4028</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
@@ -4107,13 +4113,13 @@
         <v>5398</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>193</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4128,10 +4134,10 @@
         <v>146755</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>17</v>
@@ -4143,13 +4149,13 @@
         <v>158508</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="M20" s="7">
         <v>452</v>
@@ -4158,13 +4164,13 @@
         <v>305263</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>199</v>
+        <v>103</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4220,7 +4226,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP16A04-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16A04-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{896E94A2-F110-460C-AEEC-8DA7729DDB66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{544B925F-6118-404E-954C-C99FD6F058FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6886B41D-4925-41AD-B531-FE3D18E6905C}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{20997FEF-DC27-40E9-AE68-1CC665605BC3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="184">
   <si>
     <t>Menores según si ha consumido laxantes en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -79,13 +79,13 @@
     <t>0%</t>
   </si>
   <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
   </si>
   <si>
     <t>No</t>
@@ -94,148 +94,133 @@
     <t>100,0%</t>
   </si>
   <si>
-    <t>73,58%</t>
+    <t>96,02%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
     <t>1,69%</t>
   </si>
   <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
+    <t>8,48%</t>
   </si>
   <si>
     <t>1,65%</t>
   </si>
   <si>
-    <t>5,34%</t>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
   </si>
   <si>
     <t>98,31%</t>
   </si>
   <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
+    <t>91,52%</t>
   </si>
   <si>
     <t>98,35%</t>
   </si>
   <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>4,44%</t>
   </si>
   <si>
     <t>1,92%</t>
   </si>
   <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
+    <t>11,01%</t>
   </si>
   <si>
     <t>1,12%</t>
   </si>
   <si>
-    <t>5,64%</t>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
   </si>
   <si>
     <t>98,08%</t>
   </si>
   <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
+    <t>88,99%</t>
   </si>
   <si>
     <t>98,88%</t>
   </si>
   <si>
-    <t>94,36%</t>
+    <t>94,35%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
     <t>2,09%</t>
   </si>
   <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
+    <t>10,51%</t>
   </si>
   <si>
     <t>2,45%</t>
   </si>
   <si>
-    <t>7,91%</t>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
   </si>
   <si>
     <t>97,91%</t>
   </si>
   <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
+    <t>89,49%</t>
   </si>
   <si>
     <t>97,55%</t>
   </si>
   <si>
-    <t>92,09%</t>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
   </si>
   <si>
     <t>1,52%</t>
@@ -244,46 +229,40 @@
     <t>0,47%</t>
   </si>
   <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
+    <t>4,59%</t>
   </si>
   <si>
     <t>1,34%</t>
   </si>
   <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
   </si>
   <si>
     <t>98,48%</t>
   </si>
   <si>
-    <t>96,04%</t>
+    <t>95,41%</t>
   </si>
   <si>
     <t>99,53%</t>
   </si>
   <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
     <t>98,66%</t>
   </si>
   <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -292,361 +271,325 @@
     <t>Menores según si ha consumido laxantes en 2012 (Tasa respuesta: 25,73%)</t>
   </si>
   <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido laxantes en 2016 (Tasa respuesta: 21,64%)</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
   </si>
   <si>
     <t>3,68%</t>
   </si>
   <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
+    <t>96,7%</t>
   </si>
   <si>
     <t>96,32%</t>
   </si>
   <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido laxantes en 2016 (Tasa respuesta: 21,64%)</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
   </si>
   <si>
     <t>3,61%</t>
   </si>
   <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
     <t>0,96%</t>
   </si>
   <si>
-    <t>5,58%</t>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
   </si>
   <si>
     <t>96,39%</t>
   </si>
   <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
     <t>99,04%</t>
   </si>
   <si>
-    <t>94,42%</t>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
   </si>
   <si>
     <t>0,92%</t>
   </si>
   <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
+    <t>3,24%</t>
   </si>
   <si>
     <t>1,74%</t>
   </si>
   <si>
-    <t>0,73%</t>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
   </si>
   <si>
     <t>99,08%</t>
   </si>
   <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
+    <t>96,76%</t>
   </si>
   <si>
     <t>98,26%</t>
   </si>
   <si>
-    <t>99,27%</t>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
   </si>
 </sst>
 </file>
@@ -1058,8 +1001,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60F09E62-AF30-4E24-91BF-4468A8C0D291}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B949D0-522A-4F45-A2C8-1D246FCEE2DE}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1227,10 +1170,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="D5" s="7">
-        <v>4787</v>
+        <v>32818</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1242,10 +1185,10 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I5" s="7">
-        <v>9694</v>
+        <v>28674</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
@@ -1257,10 +1200,10 @@
         <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="N5" s="7">
-        <v>14481</v>
+        <v>61492</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
@@ -1278,10 +1221,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="D6" s="7">
-        <v>4787</v>
+        <v>32818</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -1293,10 +1236,10 @@
         <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I6" s="7">
-        <v>9694</v>
+        <v>28674</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -1308,10 +1251,10 @@
         <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="N6" s="7">
-        <v>14481</v>
+        <v>61492</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -1331,49 +1274,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>669</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="G7" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>698</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>1367</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1382,49 +1325,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="D8" s="7">
-        <v>23887</v>
+        <v>40978</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="H8" s="7">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="I8" s="7">
-        <v>23124</v>
+        <v>40608</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="M8" s="7">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="N8" s="7">
-        <v>47011</v>
+        <v>81585</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1433,10 +1376,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="D9" s="7">
-        <v>23887</v>
+        <v>41647</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -1448,10 +1391,10 @@
         <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="I9" s="7">
-        <v>23124</v>
+        <v>41306</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -1463,10 +1406,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="N9" s="7">
-        <v>47011</v>
+        <v>82952</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -1480,55 +1423,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>698</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="M10" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>1367</v>
+        <v>673</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1537,46 +1480,46 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="D11" s="7">
-        <v>40608</v>
+        <v>25164</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="I11" s="7">
-        <v>40978</v>
+        <v>34450</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="7">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="N11" s="7">
-        <v>81585</v>
+        <v>59613</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>17</v>
@@ -1588,10 +1531,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="D12" s="7">
-        <v>41306</v>
+        <v>25164</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -1603,10 +1546,10 @@
         <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="I12" s="7">
-        <v>41647</v>
+        <v>35123</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -1618,10 +1561,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="N12" s="7">
-        <v>82952</v>
+        <v>60286</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -1635,7 +1578,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1644,46 +1587,46 @@
         <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>673</v>
+        <v>767</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>813</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>673</v>
+        <v>1580</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1692,46 +1635,46 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
+        <v>33</v>
+      </c>
+      <c r="D14" s="7">
+        <v>24910</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="7">
-        <v>34450</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="F14" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H14" s="7">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="I14" s="7">
-        <v>25164</v>
+        <v>38004</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="M14" s="7">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="N14" s="7">
-        <v>59613</v>
+        <v>62914</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>17</v>
@@ -1743,10 +1686,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="D15" s="7">
-        <v>35123</v>
+        <v>25677</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -1758,10 +1701,10 @@
         <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="I15" s="7">
-        <v>25164</v>
+        <v>38817</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -1773,10 +1716,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="N15" s="7">
-        <v>60286</v>
+        <v>64494</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -1790,55 +1733,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>813</v>
+        <v>1436</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>767</v>
+        <v>2184</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="M16" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N16" s="7">
-        <v>1580</v>
+        <v>3620</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1847,49 +1790,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>55</v>
+        <v>188</v>
       </c>
       <c r="D17" s="7">
-        <v>38004</v>
+        <v>123869</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H17" s="7">
-        <v>33</v>
+        <v>212</v>
       </c>
       <c r="I17" s="7">
-        <v>24910</v>
+        <v>141735</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="M17" s="7">
-        <v>88</v>
+        <v>400</v>
       </c>
       <c r="N17" s="7">
-        <v>62914</v>
+        <v>265604</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1898,10 +1841,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>56</v>
+        <v>190</v>
       </c>
       <c r="D18" s="7">
-        <v>38817</v>
+        <v>125305</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -1913,10 +1856,10 @@
         <v>19</v>
       </c>
       <c r="H18" s="7">
-        <v>34</v>
+        <v>215</v>
       </c>
       <c r="I18" s="7">
-        <v>25677</v>
+        <v>143919</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -1928,10 +1871,10 @@
         <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>90</v>
+        <v>405</v>
       </c>
       <c r="N18" s="7">
-        <v>64494</v>
+        <v>269224</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -1944,171 +1887,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>3</v>
-      </c>
-      <c r="D19" s="7">
-        <v>2184</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1436</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M19" s="7">
-        <v>5</v>
-      </c>
-      <c r="N19" s="7">
-        <v>3620</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>212</v>
-      </c>
-      <c r="D20" s="7">
-        <v>141735</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F20" s="7" t="s">
+      <c r="A19" t="s">
         <v>75</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H20" s="7">
-        <v>188</v>
-      </c>
-      <c r="I20" s="7">
-        <v>123869</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M20" s="7">
-        <v>400</v>
-      </c>
-      <c r="N20" s="7">
-        <v>265604</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>215</v>
-      </c>
-      <c r="D21" s="7">
-        <v>143919</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>190</v>
-      </c>
-      <c r="I21" s="7">
-        <v>125305</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>405</v>
-      </c>
-      <c r="N21" s="7">
-        <v>269224</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>82</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2121,8 +1908,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB7CDC3-835B-4857-B0C8-9F1C6722F212}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BE03B95-8C98-4C65-A82A-FE7C7EE2E1EE}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2138,7 +1925,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2251,7 +2038,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2266,7 +2053,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2281,7 +2068,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2290,46 +2077,46 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="D5" s="7">
-        <v>2652</v>
+        <v>41042</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="I5" s="7">
-        <v>7830</v>
+        <v>39346</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="N5" s="7">
-        <v>10482</v>
+        <v>80388</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -2341,10 +2128,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="D6" s="7">
-        <v>2652</v>
+        <v>41042</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -2356,10 +2143,10 @@
         <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="I6" s="7">
-        <v>7830</v>
+        <v>39346</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -2371,10 +2158,10 @@
         <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="N6" s="7">
-        <v>10482</v>
+        <v>80388</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -2406,37 +2193,37 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>625</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>625</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2445,49 +2232,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="D8" s="7">
-        <v>36695</v>
+        <v>51737</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="I8" s="7">
-        <v>33211</v>
+        <v>50338</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="M8" s="7">
-        <v>96</v>
+        <v>149</v>
       </c>
       <c r="N8" s="7">
-        <v>69906</v>
+        <v>102075</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2496,10 +2283,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="D9" s="7">
-        <v>36695</v>
+        <v>51737</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -2511,10 +2298,10 @@
         <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="I9" s="7">
-        <v>33211</v>
+        <v>50963</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -2526,10 +2313,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="N9" s="7">
-        <v>69906</v>
+        <v>102700</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -2543,7 +2330,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2552,46 +2339,46 @@
         <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
+        <v>607</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M10" s="7">
+        <v>2</v>
+      </c>
+      <c r="N10" s="7">
+        <v>1234</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="M10" s="7">
-        <v>1</v>
-      </c>
-      <c r="N10" s="7">
-        <v>625</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2600,46 +2387,46 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D11" s="7">
-        <v>50338</v>
+        <v>42802</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H11" s="7">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I11" s="7">
-        <v>51737</v>
+        <v>50621</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>145</v>
+      </c>
+      <c r="N11" s="7">
+        <v>93423</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M11" s="7">
-        <v>149</v>
-      </c>
-      <c r="N11" s="7">
-        <v>102075</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>17</v>
@@ -2651,10 +2438,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D12" s="7">
-        <v>50963</v>
+        <v>43429</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -2669,7 +2456,7 @@
         <v>78</v>
       </c>
       <c r="I12" s="7">
-        <v>51737</v>
+        <v>51228</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -2681,10 +2468,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N12" s="7">
-        <v>102700</v>
+        <v>94657</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -2698,55 +2485,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>607</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>627</v>
+        <v>641</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M13" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>1234</v>
+        <v>641</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2755,46 +2542,46 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D14" s="7">
-        <v>50621</v>
+        <v>50784</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="7">
+        <v>66</v>
+      </c>
+      <c r="I14" s="7">
+        <v>49300</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="7">
-        <v>68</v>
-      </c>
-      <c r="I14" s="7">
-        <v>42802</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="7">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="N14" s="7">
-        <v>93423</v>
+        <v>100084</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>17</v>
@@ -2806,10 +2593,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D15" s="7">
-        <v>51228</v>
+        <v>50784</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -2821,10 +2608,10 @@
         <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I15" s="7">
-        <v>43429</v>
+        <v>49941</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -2836,10 +2623,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="N15" s="7">
-        <v>94657</v>
+        <v>100725</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -2853,7 +2640,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2862,46 +2649,46 @@
         <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>641</v>
+        <v>627</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H16" s="7">
+        <v>3</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1873</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>4</v>
+      </c>
+      <c r="N16" s="7">
+        <v>2500</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="M16" s="7">
-        <v>1</v>
-      </c>
-      <c r="N16" s="7">
-        <v>641</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P16" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>120</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2910,49 +2697,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>66</v>
+        <v>268</v>
       </c>
       <c r="D17" s="7">
-        <v>49300</v>
+        <v>186365</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H17" s="7">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="I17" s="7">
-        <v>50784</v>
+        <v>189605</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>123</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="M17" s="7">
-        <v>134</v>
+        <v>536</v>
       </c>
       <c r="N17" s="7">
-        <v>100084</v>
+        <v>375970</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>125</v>
+        <v>33</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>17</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2961,10 +2748,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>67</v>
+        <v>269</v>
       </c>
       <c r="D18" s="7">
-        <v>49941</v>
+        <v>186992</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -2976,10 +2763,10 @@
         <v>19</v>
       </c>
       <c r="H18" s="7">
-        <v>68</v>
+        <v>271</v>
       </c>
       <c r="I18" s="7">
-        <v>50784</v>
+        <v>191478</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -2991,10 +2778,10 @@
         <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>135</v>
+        <v>540</v>
       </c>
       <c r="N18" s="7">
-        <v>100725</v>
+        <v>378470</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -3007,171 +2794,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>3</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1873</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1</v>
-      </c>
-      <c r="I19" s="7">
-        <v>627</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="M19" s="7">
-        <v>4</v>
-      </c>
-      <c r="N19" s="7">
-        <v>2500</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>268</v>
-      </c>
-      <c r="D20" s="7">
-        <v>189605</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="H20" s="7">
-        <v>268</v>
-      </c>
-      <c r="I20" s="7">
-        <v>186365</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M20" s="7">
-        <v>536</v>
-      </c>
-      <c r="N20" s="7">
-        <v>375970</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>271</v>
-      </c>
-      <c r="D21" s="7">
-        <v>191478</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>269</v>
-      </c>
-      <c r="I21" s="7">
-        <v>186992</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>540</v>
-      </c>
-      <c r="N21" s="7">
-        <v>378470</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>82</v>
+      <c r="A19" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3184,8 +2815,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DB674D-A4F2-4229-80C2-9CA5EB8F9CEF}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E12886D2-323E-4B95-A85E-45A39418417F}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3201,7 +2832,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3302,49 +2933,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>1950</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>652</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>2602</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>133</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3353,49 +2984,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="D5" s="7">
-        <v>4512</v>
+        <v>30114</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H5" s="7">
+        <v>37</v>
+      </c>
+      <c r="I5" s="7">
+        <v>28067</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="7">
-        <v>8</v>
-      </c>
-      <c r="I5" s="7">
-        <v>7682</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="M5" s="7">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="N5" s="7">
-        <v>12194</v>
+        <v>58181</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>141</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3404,10 +3035,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D6" s="7">
-        <v>4512</v>
+        <v>32064</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -3419,10 +3050,10 @@
         <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="I6" s="7">
-        <v>7682</v>
+        <v>28719</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -3434,10 +3065,10 @@
         <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="N6" s="7">
-        <v>12194</v>
+        <v>60783</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -3457,49 +3088,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>652</v>
+        <v>1306</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>149</v>
+        <v>51</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
+        <v>717</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="M7" s="7">
         <v>3</v>
       </c>
-      <c r="I7" s="7">
-        <v>1950</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="M7" s="7">
-        <v>4</v>
-      </c>
       <c r="N7" s="7">
-        <v>2602</v>
+        <v>2024</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3508,49 +3139,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="D8" s="7">
-        <v>23555</v>
+        <v>52112</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>157</v>
+        <v>57</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H8" s="7">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="I8" s="7">
-        <v>22432</v>
+        <v>49044</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>159</v>
+        <v>97</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>161</v>
+        <v>17</v>
       </c>
       <c r="M8" s="7">
-        <v>64</v>
+        <v>157</v>
       </c>
       <c r="N8" s="7">
-        <v>45987</v>
+        <v>101155</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3559,10 +3190,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="D9" s="7">
-        <v>24207</v>
+        <v>53418</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -3574,10 +3205,10 @@
         <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="I9" s="7">
-        <v>24382</v>
+        <v>49761</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -3589,10 +3220,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>68</v>
+        <v>160</v>
       </c>
       <c r="N9" s="7">
-        <v>48589</v>
+        <v>103179</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -3606,55 +3237,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>717</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="H10" s="7">
-        <v>2</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1306</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>58</v>
-      </c>
       <c r="K10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="M10" s="7">
-        <v>3</v>
-      </c>
-      <c r="N10" s="7">
-        <v>2024</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>167</v>
-      </c>
       <c r="P10" s="7" t="s">
-        <v>168</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>169</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3663,49 +3294,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D11" s="7">
-        <v>49044</v>
+        <v>33948</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="7">
+        <v>51</v>
+      </c>
+      <c r="I11" s="7">
+        <v>32374</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="7">
-        <v>84</v>
-      </c>
-      <c r="I11" s="7">
-        <v>52112</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>64</v>
-      </c>
       <c r="K11" s="7" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="L11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="7">
+        <v>108</v>
+      </c>
+      <c r="N11" s="7">
+        <v>66323</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M11" s="7">
-        <v>157</v>
-      </c>
-      <c r="N11" s="7">
-        <v>101155</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>172</v>
-      </c>
       <c r="P11" s="7" t="s">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>174</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3714,10 +3345,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="D12" s="7">
-        <v>49761</v>
+        <v>33948</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -3729,10 +3360,10 @@
         <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="I12" s="7">
-        <v>53418</v>
+        <v>32374</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -3744,10 +3375,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>160</v>
+        <v>108</v>
       </c>
       <c r="N12" s="7">
-        <v>103179</v>
+        <v>66323</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -3761,25 +3392,25 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>772</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="G13" s="7" t="s">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3794,22 +3425,22 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>772</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3818,49 +3449,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D14" s="7">
-        <v>32374</v>
+        <v>42334</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="H14" s="7">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I14" s="7">
-        <v>33948</v>
+        <v>37270</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N14" s="7">
-        <v>66323</v>
+        <v>79604</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3869,10 +3500,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D15" s="7">
-        <v>32374</v>
+        <v>43106</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -3884,10 +3515,10 @@
         <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I15" s="7">
-        <v>33948</v>
+        <v>37270</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3899,10 +3530,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="N15" s="7">
-        <v>66323</v>
+        <v>80376</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -3916,55 +3547,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>4028</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>168</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>169</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" s="7">
-        <v>772</v>
+        <v>1370</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N16" s="7">
-        <v>772</v>
+        <v>5398</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3973,49 +3604,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>52</v>
+        <v>239</v>
       </c>
       <c r="D17" s="7">
-        <v>37270</v>
+        <v>158508</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>19</v>
+        <v>178</v>
       </c>
       <c r="H17" s="7">
-        <v>58</v>
+        <v>213</v>
       </c>
       <c r="I17" s="7">
-        <v>42334</v>
+        <v>146755</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="7">
-        <v>110</v>
+        <v>452</v>
       </c>
       <c r="N17" s="7">
-        <v>79604</v>
+        <v>305263</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>17</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4024,10 +3655,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>52</v>
+        <v>245</v>
       </c>
       <c r="D18" s="7">
-        <v>37270</v>
+        <v>162536</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -4039,10 +3670,10 @@
         <v>19</v>
       </c>
       <c r="H18" s="7">
-        <v>59</v>
+        <v>215</v>
       </c>
       <c r="I18" s="7">
-        <v>43106</v>
+        <v>148125</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -4054,10 +3685,10 @@
         <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>111</v>
+        <v>460</v>
       </c>
       <c r="N18" s="7">
-        <v>80376</v>
+        <v>310661</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -4070,171 +3701,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>2</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1370</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="H19" s="7">
-        <v>6</v>
-      </c>
-      <c r="I19" s="7">
-        <v>4028</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="M19" s="7">
-        <v>8</v>
-      </c>
-      <c r="N19" s="7">
-        <v>5398</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>213</v>
-      </c>
-      <c r="D20" s="7">
-        <v>146755</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="7">
-        <v>239</v>
-      </c>
-      <c r="I20" s="7">
-        <v>158508</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="M20" s="7">
-        <v>452</v>
-      </c>
-      <c r="N20" s="7">
-        <v>305263</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>215</v>
-      </c>
-      <c r="D21" s="7">
-        <v>148125</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>245</v>
-      </c>
-      <c r="I21" s="7">
-        <v>162536</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>460</v>
-      </c>
-      <c r="N21" s="7">
-        <v>310661</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>82</v>
+      <c r="A19" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
